--- a/AdminExam/uploads/2023.09.05 - 05.13.29pm.xlsx
+++ b/AdminExam/uploads/2023.09.05 - 05.13.29pm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nipun\Downloads\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E725D5F-8A4D-4B97-9013-0D28E4D994A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326A0BD8-9623-4302-829F-A74DED21A659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0122615-376E-4791-BE43-BC8C62BCF94A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D0122615-376E-4791-BE43-BC8C62BCF94A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Vithu Siva</t>
-  </si>
-  <si>
-    <t>Science</t>
   </si>
   <si>
     <t>Computer Science</t>
@@ -432,17 +429,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEDABA8-06F2-444A-970C-73E4969CF86C}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" activeCellId="1" sqref="O23 O22"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -459,37 +456,34 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1">
+        <v>1234567890</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1">
-        <v>1234567890</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1">
+        <v>3.05</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
-      </c>
-      <c r="L1">
-        <v>3.05</v>
       </c>
       <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -503,35 +497,32 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
         <v>1234567890</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>3.05</v>
+      </c>
+      <c r="L2" t="s">
         <v>8</v>
-      </c>
-      <c r="L2">
-        <v>3.05</v>
       </c>
       <c r="M2" t="s">
         <v>9</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I1" r:id="rId1" xr:uid="{D2D4C1A0-5D01-481A-BB9F-297D344FE1E6}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{9AC23B44-6A04-4755-872D-CA1042C585E1}"/>
+    <hyperlink ref="H1" r:id="rId1" xr:uid="{D2D4C1A0-5D01-481A-BB9F-297D344FE1E6}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{9AC23B44-6A04-4755-872D-CA1042C585E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
